--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Employee Name</t>
   </si>
@@ -58,16 +58,40 @@
     <t xml:space="preserve">Start Date</t>
   </si>
   <si>
+    <t xml:space="preserve">Juan</t>
+  </si>
+  <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
+    <t xml:space="preserve">Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ng</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
+    <t xml:space="preserve">nmh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mh</t>
+  </si>
+  <si>
     <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfg</t>
   </si>
 </sst>
 </file>
@@ -86,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,6 +205,10 @@
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -202,7 +231,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,23 +275,53 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>15</v>
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
